--- a/data/evaluation/evaluation_South_Spring_Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8438.545277449148</v>
+        <v>8460.164986565465</v>
       </c>
       <c r="C4" t="n">
-        <v>343868838.7626747</v>
+        <v>350365842.69074</v>
       </c>
       <c r="D4" t="n">
-        <v>18543.70078389626</v>
+        <v>18718.06193735719</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1674971203577098</v>
+        <v>0.1517679414689692</v>
       </c>
     </row>
     <row r="5">
